--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.111284246337168</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="H2">
-        <v>0.111284246337168</v>
+        <v>0.343729</v>
       </c>
       <c r="I2">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="J2">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>3.532830698100847</v>
+        <v>3.903701188803443</v>
       </c>
       <c r="R2">
-        <v>3.532830698100847</v>
+        <v>35.13331069923099</v>
       </c>
       <c r="S2">
-        <v>0.003309040456892029</v>
+        <v>0.003390957132829461</v>
       </c>
       <c r="T2">
-        <v>0.003309040456892029</v>
+        <v>0.003390957132829462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.111284246337168</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="H3">
-        <v>0.111284246337168</v>
+        <v>0.343729</v>
       </c>
       <c r="I3">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="J3">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>3.073522134037035</v>
+        <v>3.172102732771</v>
       </c>
       <c r="R3">
-        <v>3.073522134037035</v>
+        <v>28.548924594939</v>
       </c>
       <c r="S3">
-        <v>0.00287882719433711</v>
+        <v>0.002755452804279496</v>
       </c>
       <c r="T3">
-        <v>0.00287882719433711</v>
+        <v>0.002755452804279496</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.111284246337168</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="H4">
-        <v>0.111284246337168</v>
+        <v>0.343729</v>
       </c>
       <c r="I4">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="J4">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>0.4461524916196403</v>
+        <v>0.4727371009352221</v>
       </c>
       <c r="R4">
-        <v>0.4461524916196403</v>
+        <v>4.254633908417</v>
       </c>
       <c r="S4">
-        <v>0.0004178905729918532</v>
+        <v>0.0004106439419510927</v>
       </c>
       <c r="T4">
-        <v>0.0004178905729918532</v>
+        <v>0.0004106439419510927</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.966737813242499</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="H5">
-        <v>8.966737813242499</v>
+        <v>28.171991</v>
       </c>
       <c r="I5">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="J5">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>284.6581403127549</v>
+        <v>319.9469196886498</v>
       </c>
       <c r="R5">
-        <v>284.6581403127549</v>
+        <v>2879.522277197848</v>
       </c>
       <c r="S5">
-        <v>0.2666262221919998</v>
+        <v>0.2779224733073363</v>
       </c>
       <c r="T5">
-        <v>0.2666262221919998</v>
+        <v>0.2779224733073363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.966737813242499</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="H6">
-        <v>8.966737813242499</v>
+        <v>28.171991</v>
       </c>
       <c r="I6">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="J6">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>247.6493128740634</v>
+        <v>259.985190771509</v>
       </c>
       <c r="R6">
-        <v>247.6493128740634</v>
+        <v>2339.866716943581</v>
       </c>
       <c r="S6">
-        <v>0.2319617511992065</v>
+        <v>0.2258366084999715</v>
       </c>
       <c r="T6">
-        <v>0.2319617511992065</v>
+        <v>0.2258366084999716</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.966737813242499</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="H7">
-        <v>8.966737813242499</v>
+        <v>28.171991</v>
       </c>
       <c r="I7">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="J7">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N7">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q7">
-        <v>35.94877575894623</v>
+        <v>38.74548075057145</v>
       </c>
       <c r="R7">
-        <v>35.94877575894623</v>
+        <v>348.709326755143</v>
       </c>
       <c r="S7">
-        <v>0.03367156921106918</v>
+        <v>0.03365633227586473</v>
       </c>
       <c r="T7">
-        <v>0.03367156921106918</v>
+        <v>0.03365633227586473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.76852947316154</v>
+        <v>7.968512</v>
       </c>
       <c r="H8">
-        <v>7.76852947316154</v>
+        <v>23.905536</v>
       </c>
       <c r="I8">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="J8">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N8">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q8">
-        <v>246.619807431988</v>
+        <v>271.4931510061226</v>
       </c>
       <c r="R8">
-        <v>246.619807431988</v>
+        <v>2443.438359055103</v>
       </c>
       <c r="S8">
-        <v>0.2309974606770908</v>
+        <v>0.2358330190740714</v>
       </c>
       <c r="T8">
-        <v>0.2309974606770908</v>
+        <v>0.2358330190740714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.76852947316154</v>
+        <v>7.968512</v>
       </c>
       <c r="H9">
-        <v>7.76852947316154</v>
+        <v>23.905536</v>
       </c>
       <c r="I9">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="J9">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N9">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P9">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q9">
-        <v>214.5564001245918</v>
+        <v>220.612215070464</v>
       </c>
       <c r="R9">
-        <v>214.5564001245918</v>
+        <v>1985.509935634176</v>
       </c>
       <c r="S9">
-        <v>0.2009651378649568</v>
+        <v>0.191635201594874</v>
       </c>
       <c r="T9">
-        <v>0.2009651378649568</v>
+        <v>0.191635201594874</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.76852947316154</v>
+        <v>7.968512</v>
       </c>
       <c r="H10">
-        <v>7.76852947316154</v>
+        <v>23.905536</v>
       </c>
       <c r="I10">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="J10">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N10">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q10">
-        <v>31.14500834350383</v>
+        <v>32.87774317832533</v>
       </c>
       <c r="R10">
-        <v>31.14500834350383</v>
+        <v>295.899688604928</v>
       </c>
       <c r="S10">
-        <v>0.02917210063145574</v>
+        <v>0.02855931136882183</v>
       </c>
       <c r="T10">
-        <v>0.02917210063145574</v>
+        <v>0.02855931136882183</v>
       </c>
     </row>
   </sheetData>
